--- a/Events/Up Coming Event.xlsx
+++ b/Events/Up Coming Event.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE82026-8AD7-48B1-BE3E-44566335176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6E751-687D-4B46-B563-09C35E4CCEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,7 @@
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
